--- a/DOCUMENT/基本設計書/DB設計.xlsx
+++ b/DOCUMENT/基本設計書/DB設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husah\Dropbox\見積システム\paperwork_system\DOCUMENT\基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husah\Dropbox\My PC (DESKTOP-T10UG08)\Desktop\debug#4\paperwork-system\DOCUMENT\基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216FEBD8-C75B-46E9-B7A7-CEFE48B0108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A826F0-1700-41EB-833E-F134F40D73FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7C45298B-F26E-4075-ADBD-1C793DF15499}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="224">
   <si>
     <t>論理　テーブル名</t>
     <rPh sb="0" eb="2">
@@ -1294,6 +1294,21 @@
   </si>
   <si>
     <t>Quotations_details</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順序</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderフィールドの追加</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1727,6 +1742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,9 +1780,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3117,56 +3132,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
       <c r="P1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="R1" s="39"/>
+      <c r="R1" s="40"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="41">
         <v>44269</v>
       </c>
-      <c r="R2" s="41"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="22"/>
@@ -3192,433 +3207,441 @@
       <c r="A4" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="44">
         <v>44269</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
+      <c r="B6" s="47">
+        <v>44473</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="25">
         <v>9</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="25">
         <v>10</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="25">
         <v>11</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="25">
         <v>12</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="25">
         <v>13</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="25">
         <v>14</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="25">
         <v>15</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="25">
         <v>16</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="25">
         <v>17</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="25">
         <v>18</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -4047,7 +4070,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="8"/>
       <c r="AM12" s="6" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
@@ -4081,7 +4104,9 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="8"/>
-      <c r="AM13" s="6"/>
+      <c r="AM13" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
@@ -5442,7 +5467,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21C8773-3B1F-4AE2-984C-09C71AFBADEE}">
-  <dimension ref="B2:L14"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5589,7 +5614,7 @@
       <c r="B9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="26"/>
@@ -5716,28 +5741,53 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="26" t="b">
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26" t="b">
+      <c r="K15" s="26"/>
+      <c r="L15" s="26" t="b">
         <v>1</v>
       </c>
     </row>
